--- a/biology/Botanique/Pipián_(Colombie)/Pipián_(Colombie).xlsx
+++ b/biology/Botanique/Pipián_(Colombie)/Pipián_(Colombie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pipi%C3%A1n_(Colombie)</t>
+          <t>Pipián_(Colombie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pipián est une spécialité culinaire de la cuisine colombienne à base de viande et de pommes de terre, originaire de la région de Popayán, chef-lieu du département du Cauca. Cette recette très populaire dans la cuisine colombienne se rencontre aussi en Bolivie, par exemple dans les départements de Santa Cruz et de Beni
 Il s'agit d'un ragoût épais composé d'une purée faite avec une variété locale de pomme de terre, familièrement appelé « colorada », à laquelle on ajoute du maní (cacahuètes grillées et moulues), de l'ail, de l'œuf dur, de la tomate, de l'oignon et du roucou. 
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pipi%C3%A1n_(Colombie)</t>
+          <t>Pipián_(Colombie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pipián doit se consommer immédiatement après la cuisson.
 Il s'emploie aussi comme farce pour la préparation des empanadas et des tamales, lesquels s'accompagnent d'une sauce typique appelée ají (piment) de maní.
